--- a/Database-ProcessP.xlsx
+++ b/Database-ProcessP.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -344,7 +345,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L2" sqref="L2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -360,10 +361,10 @@
     <col bestFit="1" customWidth="1" max="9" min="9" style="3" width="20.109375"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="11.44140625"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="1" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="1" width="13.109375"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="1" width="24.21875"/>
     <col bestFit="1" customWidth="1" max="13" min="13" style="1" width="17.44140625"/>
-    <col customWidth="1" max="19" min="14" style="1" width="11.5546875"/>
-    <col customWidth="1" max="16384" min="20" style="1" width="11.5546875"/>
+    <col customWidth="1" max="20" min="14" style="1" width="11.5546875"/>
+    <col customWidth="1" max="16384" min="21" style="1" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -503,7 +504,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="1" ht="14.4" r="4">
       <c r="A4" t="n">
         <v>4</v>
       </c>
@@ -538,7 +539,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row customHeight="1" ht="14.4" r="5">
       <c r="A5" t="n">
         <v>5</v>
       </c>
@@ -577,4 +578,29 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <f>293+148</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>